--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_meas_rates/model_v4_manual_fixed.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_meas_rates/model_v4_manual_fixed.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="356">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -677,6 +677,12 @@
   </si>
   <si>
     <t xml:space="preserve">vref_std (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean2 (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std2 (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">R_r1</t>
@@ -1363,7 +1369,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1382,15 +1388,15 @@
         <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>6140</v>
@@ -1407,7 +1413,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -1424,7 +1430,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>630</v>
@@ -1441,7 +1447,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -1458,7 +1464,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4790</v>
@@ -1475,7 +1481,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -1492,7 +1498,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>720</v>
@@ -1509,7 +1515,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -1526,7 +1532,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>360</v>
@@ -1543,7 +1549,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5510</v>
@@ -1560,7 +1566,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>720</v>
@@ -1577,7 +1583,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>585</v>
@@ -1594,7 +1600,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -1611,7 +1617,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>292.5</v>
@@ -1628,7 +1634,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1170</v>
@@ -1645,7 +1651,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -1662,7 +1668,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>295</v>
@@ -1679,7 +1685,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>440</v>
@@ -1696,7 +1702,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -1713,7 +1719,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>6110</v>
@@ -1730,7 +1736,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>570</v>
@@ -1747,7 +1753,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>460</v>
@@ -1764,7 +1770,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>460</v>
@@ -1781,7 +1787,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>460</v>
@@ -1798,7 +1804,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>5110</v>
@@ -1815,7 +1821,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>5110</v>
@@ -1832,7 +1838,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>4360</v>
@@ -1849,7 +1855,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4360</v>
@@ -1866,7 +1872,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>3890</v>
@@ -1883,7 +1889,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>700</v>
@@ -1900,7 +1906,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>700</v>
@@ -1917,7 +1923,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2230</v>
@@ -1934,7 +1940,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>5337.5</v>
@@ -1951,7 +1957,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>312.5</v>
@@ -1968,7 +1974,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>10000</v>
@@ -1985,7 +1991,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>470</v>
@@ -2002,7 +2008,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>700</v>
@@ -2019,7 +2025,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -2036,7 +2042,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>20</v>
@@ -2053,7 +2059,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>290</v>
@@ -2070,7 +2076,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>10</v>
@@ -2087,7 +2093,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>90</v>
@@ -2104,7 +2110,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>140</v>
@@ -2121,7 +2127,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>50</v>
@@ -2138,7 +2144,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>750</v>
@@ -2186,16 +2192,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,13 +2922,13 @@
         <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3671,73 +3677,73 @@
         <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3745,7 +3751,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -3754,13 +3760,13 @@
         <v>1</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,7 +3774,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -3777,13 +3783,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3791,7 +3797,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -3800,13 +3806,13 @@
         <v>2</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,7 +3820,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -3823,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,7 +3837,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -3840,19 +3846,19 @@
         <v>2</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>5470828</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,7 +3866,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -3869,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,7 +3883,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -3886,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,7 +3900,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -3908,7 +3914,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -3917,7 +3923,7 @@
         <v>2</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,7 +3931,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -3934,19 +3940,19 @@
         <v>1</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3954,7 +3960,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -3963,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,7 +3977,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -3980,31 +3986,31 @@
         <v>2</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>6815421</v>
@@ -4015,7 +4021,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -4024,31 +4030,31 @@
         <v>2</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>6815421</v>
@@ -4059,7 +4065,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -4068,37 +4074,37 @@
         <v>2</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4106,7 +4112,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
@@ -4159,7 +4165,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
@@ -4168,25 +4174,25 @@
         <v>2</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,7 +4200,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -4203,25 +4209,25 @@
         <v>2</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,7 +4235,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -4238,10 +4244,10 @@
         <v>2</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,7 +4255,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -4258,13 +4264,13 @@
         <v>2</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4272,7 +4278,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -4281,19 +4287,19 @@
         <v>2</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>17914867</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4301,7 +4307,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -4310,19 +4316,19 @@
         <v>2</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>17914867</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4330,7 +4336,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0</v>
@@ -4339,19 +4345,19 @@
         <v>2</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>8805555</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4359,7 +4365,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -4368,19 +4374,19 @@
         <v>2</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>6326623</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,7 +4394,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -4397,19 +4403,19 @@
         <v>3</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="W25" s="0" t="n">
         <v>12876349</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4417,7 +4423,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -4426,13 +4432,13 @@
         <v>2</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,7 +4446,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -4449,13 +4455,13 @@
         <v>4</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,7 +4469,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
@@ -4472,19 +4478,19 @@
         <v>4</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,7 +4498,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>0</v>
@@ -4501,13 +4507,13 @@
         <v>2</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4515,7 +4521,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -4524,19 +4530,19 @@
         <v>4</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>7447472</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="W30" s="0" t="n">
         <v>8636984</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,7 +4550,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -4553,19 +4559,19 @@
         <v>1</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>5128739</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4573,7 +4579,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -4582,13 +4588,13 @@
         <v>1</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4596,7 +4602,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>0</v>
@@ -4605,13 +4611,13 @@
         <v>2</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="W33" s="0" t="n">
         <v>9376357</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,7 +4625,7 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
@@ -4628,25 +4634,25 @@
         <v>4</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="W34" s="0" t="n">
         <v>468836</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,7 +4660,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -4663,16 +4669,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4686,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -4689,16 +4695,16 @@
         <v>1</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="V36" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4706,7 +4712,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -4720,7 +4726,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4734,7 +4740,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4748,7 +4754,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -4757,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="X40" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,7 +4771,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -4774,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="X41" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4782,7 +4788,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -4791,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="X42" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,7 +4805,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -4852,7 +4858,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -4905,7 +4911,7 @@
         <v>112</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -4958,7 +4964,7 @@
         <v>113</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -5011,7 +5017,7 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -5064,7 +5070,7 @@
         <v>115</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -5117,7 +5123,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -5170,7 +5176,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_meas_rates/model_v4_manual_fixed.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_meas_rates/model_v4_manual_fixed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,14 +13,13 @@
     <sheet name="thermoMets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="mets" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="rxns" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="splitRatios" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="poolConst" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermo_ineq_constraints" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoRxns" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="287">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -403,15 +402,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constant?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
-  </si>
-  <si>
     <t xml:space="preserve">D-glucose extracellular</t>
   </si>
   <si>
@@ -550,9 +540,6 @@
     <t xml:space="preserve">transport reaction?</t>
   </si>
   <si>
-    <t xml:space="preserve">modelled?</t>
-  </si>
-  <si>
     <t xml:space="preserve">isoenzymes</t>
   </si>
   <si>
@@ -679,12 +666,6 @@
     <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
-    <t xml:space="preserve">vref_mean2 (mmol/L/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_std2 (mmol/L/h)</t>
-  </si>
-  <si>
     <t xml:space="preserve">R_r1</t>
   </si>
   <si>
@@ -862,81 +843,18 @@
     <t xml:space="preserve">subunits</t>
   </si>
   <si>
-    <t xml:space="preserve">mechanism_refs_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mechanism_refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inhibitors_refs_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inhibitors_refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activators_refs_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activators_refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative_effectors_refs_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative_effectors_refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive_effectors_refs_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive_effectors_refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subunits_refs_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subunits_refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
-  </si>
-  <si>
     <t xml:space="preserve">diffusion</t>
   </si>
   <si>
-    <t xml:space="preserve">doi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gkv1049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diffusion setting subunits to 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedBiTer</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1146/annurev.biochem.73.011303.073626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits</t>
-  </si>
-  <si>
     <t xml:space="preserve">randomBiBi</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016/0003-9861(72)90354-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">looks like 1 subunit from metacyc</t>
-  </si>
-  <si>
     <t xml:space="preserve">uniUni</t>
   </si>
   <si>
-    <t xml:space="preserve">PMID</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedBiBi</t>
   </si>
   <si>
@@ -946,160 +864,34 @@
     <t xml:space="preserve">pingPongBiBi</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1021/ja204637d 10.1021/bi00368a031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.ijbiomac.2018.06.097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/0003-9861(83)90546-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID PMID PMID; PMID PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">468836 4154934 7350909; 468836 4154934 7350909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID PMID PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1257 468836 4154934 7350909</t>
-  </si>
-  <si>
     <t xml:space="preserve">promiscuousBiBi</t>
   </si>
   <si>
     <t xml:space="preserve">uniBi</t>
   </si>
   <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rcsb.org/structure/4x84 12517338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gky1048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rcsb.org/structure/4XEU 17914867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gky1048 8805555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same as in e. coli and some other organisms in brenda</t>
-  </si>
-  <si>
     <t xml:space="preserve">uniUniActivTwoTracks</t>
   </si>
   <si>
     <t xml:space="preserve">randomUniBi</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016/S1874-6047(08)60452-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedUniBi</t>
   </si>
   <si>
-    <t xml:space="preserve">https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 4 for fbp1 and 2 for fbp2</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedBiUni</t>
   </si>
   <si>
-    <t xml:space="preserve">doi PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/0006-3002(58)90242-7 10712619 2649077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.pep.2011.06.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 10 for fba1 and 2 for fba2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1007/s00018-010-0473-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedTerBi</t>
   </si>
   <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1074/jbc.275.15.11147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17085493 10437801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 2 for 23dpg-dependent and 1 for independent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/j.0022-3646.1992.00472.x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">468836 468836 468836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedTerUni</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016/j.bbagen.2012.09.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doi doi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.bbagen.2012.09.018 10.1093/emboj/cdf670</t>
-  </si>
-  <si>
     <t xml:space="preserve">pingPongUniUniUniBi</t>
   </si>
   <si>
     <t xml:space="preserve">massAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massAction setting subunits to 1</t>
   </si>
 </sst>
 </file>
@@ -1366,10 +1158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1379,790 +1171,704 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>6140</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>6140</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4790</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4790</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>5510</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>5510</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>585</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>292.5</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>292.5</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1170</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>6110</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>5110</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>5110</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>3890</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>3890</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>2230</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>2230</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>5337.5</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>533.75</v>
+        <v>0</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5337.5</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>533.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>312.5</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>31.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>470</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>253</v>
+      <c r="A38" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>254</v>
+        <v>106</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>256</v>
+        <v>108</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>290</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>90</v>
+        <v>0.99</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>140</v>
+        <v>0.99</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>14</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>50</v>
+        <v>0.99</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>750</v>
+        <v>0.99</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2175,733 +1881,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D50"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2922,13 +1901,13 @@
         <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,117 +2635,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AV1" activeCellId="0" sqref="AV1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,22 +2718,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,22 +2732,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,16 +2746,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,28 +2760,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>5470828</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,16 +2774,13 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,16 +2788,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3900,7 +2802,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -3914,16 +2816,13 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,28 +2830,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,16 +2844,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X12" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,43 +2858,13 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>6815421</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,43 +2872,13 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="S14" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>6815421</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,46 +2886,13 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="S15" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="T15" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,51 +2900,12 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4165,34 +2914,13 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V17" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="X17" s="0" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,7 +2928,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -4208,34 +2936,13 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V18" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -4243,19 +2950,14 @@
       <c r="K19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V19" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>315</v>
-      </c>
+      <c r="W19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -4263,22 +2965,13 @@
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V20" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -4286,28 +2979,14 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>17914867</v>
-      </c>
-      <c r="V21" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -4315,49 +2994,20 @@
       <c r="K22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>17914867</v>
-      </c>
-      <c r="V22" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>320</v>
-      </c>
+      <c r="W22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>8805555</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,28 +3015,13 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V24" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="W24" s="0" t="n">
-        <v>6326623</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4394,7 +3029,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -4402,28 +3037,13 @@
       <c r="K25" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L25" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="V25" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="W25" s="0" t="n">
-        <v>12876349</v>
-      </c>
-      <c r="X25" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -4431,22 +3051,14 @@
       <c r="K26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V26" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="X26" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -4454,43 +3066,20 @@
       <c r="K27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="V27" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="X27" s="0" t="s">
-        <v>332</v>
-      </c>
+      <c r="W27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="V28" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="W28" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="X28" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,22 +3087,13 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="V29" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="W29" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="X29" s="0" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4521,28 +3101,13 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>7447472</v>
-      </c>
-      <c r="V30" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="W30" s="0" t="n">
-        <v>8636984</v>
-      </c>
-      <c r="X30" s="0" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,28 +3115,13 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>5128739</v>
-      </c>
-      <c r="V31" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="W31" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="X31" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4579,22 +3129,13 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="V32" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="W32" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="X32" s="0" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4602,22 +3143,13 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="V33" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="W33" s="0" t="n">
-        <v>9376357</v>
-      </c>
-      <c r="X33" s="0" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4625,34 +3157,13 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="T34" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="U34" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="V34" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="W34" s="0" t="n">
-        <v>468836</v>
-      </c>
-      <c r="X34" s="0" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,25 +3171,13 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>349</v>
+        <v>284</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="V35" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="W35" s="0" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4686,25 +3185,13 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="V36" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="W36" s="0" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,7 +3199,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -4726,7 +3213,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4740,7 +3227,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4754,16 +3241,13 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X40" s="0" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4771,16 +3255,13 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X41" s="0" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4788,16 +3269,13 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X42" s="0" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4805,51 +3283,12 @@
         <v>110</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4858,51 +3297,12 @@
         <v>111</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4911,51 +3311,12 @@
         <v>112</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4964,51 +3325,12 @@
         <v>113</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5017,51 +3339,12 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5070,51 +3353,12 @@
         <v>115</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5123,51 +3367,12 @@
         <v>116</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5176,7 +3381,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -5184,118 +3389,8 @@
       <c r="K50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="W19" r:id="rId1" display="https://www.rcsb.org/structure/4x84 12517338"/>
-    <hyperlink ref="W21" r:id="rId2" display="https://www.rcsb.org/structure/4XEU 17914867"/>
-    <hyperlink ref="W22" r:id="rId3" display="https://www.rcsb.org/structure/4XEU 17914867"/>
-    <hyperlink ref="W26" r:id="rId4" display="https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707"/>
-    <hyperlink ref="W27" r:id="rId5" display="https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13837,18 +11932,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -13858,877 +11954,481 @@
       <c r="C1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -14738,17 +12438,8 @@
       <c r="C45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -14758,17 +12449,8 @@
       <c r="C46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -14778,17 +12460,8 @@
       <c r="C47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -14798,17 +12471,8 @@
       <c r="C48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -14818,17 +12482,8 @@
       <c r="C49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -14838,17 +12493,8 @@
       <c r="C50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -14858,17 +12504,8 @@
       <c r="C51" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -14876,15 +12513,6 @@
         <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14904,33 +12532,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14938,13 +12564,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14952,13 +12575,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14966,13 +12586,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14980,13 +12597,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14994,13 +12608,10 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15008,13 +12619,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15022,13 +12630,10 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15036,13 +12641,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15050,13 +12652,10 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15064,13 +12663,10 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15078,13 +12674,10 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15092,15 +12685,12 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -15109,15 +12699,12 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -15126,15 +12713,12 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -15143,13 +12727,10 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15157,13 +12738,10 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15171,13 +12749,10 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15185,13 +12760,10 @@
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15199,13 +12771,10 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15213,13 +12782,10 @@
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15227,13 +12793,10 @@
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15241,13 +12804,10 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15255,13 +12815,10 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15269,13 +12826,10 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15283,13 +12837,10 @@
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15297,13 +12848,10 @@
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15311,13 +12859,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15325,13 +12870,10 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15339,13 +12881,10 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15353,13 +12892,10 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15367,13 +12903,10 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15381,13 +12914,10 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15395,13 +12925,10 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15409,13 +12936,10 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15423,13 +12947,10 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15437,13 +12958,10 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15451,13 +12969,10 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15465,13 +12980,10 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15479,13 +12991,10 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15493,13 +13002,10 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15507,13 +13013,10 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15526,9 +13029,6 @@
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -15540,9 +13040,6 @@
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -15554,9 +13051,6 @@
       <c r="C45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -15568,9 +13062,6 @@
       <c r="C46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -15582,9 +13073,6 @@
       <c r="C47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -15596,9 +13084,6 @@
       <c r="C48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -15610,9 +13095,6 @@
       <c r="C49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -15624,13 +13106,7 @@
       <c r="C50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15647,7 +13123,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A51"/>
+  <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
@@ -15660,252 +13136,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>69</v>
+      <c r="A3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>70</v>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>71</v>
+      <c r="A5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>72</v>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>73</v>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>74</v>
+      <c r="A8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>75</v>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>76</v>
+      <c r="A10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>77</v>
+      <c r="A11" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>78</v>
+      <c r="A12" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>79</v>
+      <c r="A13" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>80</v>
+      <c r="A14" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>81</v>
+      <c r="A15" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>82</v>
+      <c r="A16" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>83</v>
+      <c r="A17" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>84</v>
+      <c r="A18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>85</v>
+      <c r="A19" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>86</v>
+      <c r="A20" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>87</v>
+      <c r="A21" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>88</v>
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>89</v>
+      <c r="A23" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>90</v>
+      <c r="A24" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>91</v>
+      <c r="A25" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>92</v>
+      <c r="A26" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>93</v>
+      <c r="A27" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>94</v>
+      <c r="A28" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>95</v>
+      <c r="A29" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>96</v>
+      <c r="A30" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>97</v>
+      <c r="A31" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>98</v>
+      <c r="A32" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>99</v>
+      <c r="A33" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>100</v>
+      <c r="A34" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>101</v>
+      <c r="A35" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>102</v>
+      <c r="A36" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>103</v>
+      <c r="A37" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>104</v>
+      <c r="A38" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>105</v>
+      <c r="A39" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>106</v>
+      <c r="A40" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>107</v>
+      <c r="A41" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>108</v>
+      <c r="A42" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>109</v>
+      <c r="A43" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>110</v>
+      <c r="A44" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>111</v>
+      <c r="A45" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>112</v>
+      <c r="A46" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>113</v>
+      <c r="A47" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>114</v>
+      <c r="A48" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>115</v>
+      <c r="A49" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>116</v>
+      <c r="A50" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>117</v>
+      <c r="A51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -16211,10 +13697,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A53"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16222,264 +13708,554 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
+      <c r="A3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
+      <c r="A8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
+      <c r="A10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
+      <c r="A11" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+      <c r="A12" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
+      <c r="A13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
+      <c r="A15" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
+      <c r="A16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
+      <c r="A17" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
+      <c r="A18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
+      <c r="A19" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
+      <c r="A20" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
+      <c r="A21" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
+      <c r="A22" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
+      <c r="A23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
+      <c r="A24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
+      <c r="A25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
+      <c r="A26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
+      <c r="A27" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
+      <c r="A28" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
+      <c r="A29" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
+      <c r="A30" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
+      <c r="A31" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
+      <c r="A32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
+      <c r="A33" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
+      <c r="A34" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
+      <c r="A35" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
+      <c r="A36" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
+      <c r="A37" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
+      <c r="A38" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
+      <c r="A39" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
+      <c r="A40" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
+      <c r="A41" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
+      <c r="A42" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
+      <c r="A43" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
+      <c r="A44" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
+      <c r="A45" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>61</v>
+      <c r="A46" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
+      <c r="A47" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
+      <c r="A48" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>64</v>
+      <c r="A49" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
+      <c r="A50" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16498,565 +14274,522 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0</v>
+        <v>6140</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>4790</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>4790</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>5510</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0</v>
+        <v>292.5</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0</v>
+        <v>292.5</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>6110</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0</v>
+        <v>5110</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0</v>
+        <v>5110</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>3890</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>2230</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0</v>
+        <v>5337.5</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0</v>
+        <v>533.75</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0</v>
+        <v>312.5</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>105</v>
+      <c r="A38" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>255</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_meas_rates/model_v4_manual_fixed.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_meas_rates/model_v4_manual_fixed.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="290">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -42,25 +42,40 @@
     <t xml:space="preserve">model_v4_manual</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
   </si>
   <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of model structures</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of particles</t>
+    <t xml:space="preserve">Number of models</t>
   </si>
   <si>
     <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
@@ -69,19 +84,10 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+    <t xml:space="preserve">Final tolerance (in the case of GRASP, set to 1)</t>
   </si>
   <si>
     <t xml:space="preserve">rxn ID</t>
@@ -841,6 +847,9 @@
   </si>
   <si>
     <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t xml:space="preserve">diffusion</t>
@@ -993,9 +1002,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1012,39 +1025,42 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.07"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1068,80 +1084,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1154,38 +1177,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>259</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1199,7 +1219,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1213,7 +1233,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1227,7 +1247,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1241,7 +1261,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1255,7 +1275,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1269,7 +1289,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1283,7 +1303,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1297,7 +1317,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1311,7 +1331,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1325,7 +1345,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1339,7 +1359,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1353,7 +1373,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1367,7 +1387,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1381,7 +1401,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1395,7 +1415,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1409,7 +1429,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1423,7 +1443,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1437,7 +1457,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1451,7 +1471,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1465,7 +1485,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1479,7 +1499,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1493,7 +1513,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1507,7 +1527,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1521,7 +1541,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1535,7 +1555,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1549,7 +1569,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1563,7 +1583,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -1577,7 +1597,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1591,7 +1611,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1605,7 +1625,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1619,7 +1639,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -1633,7 +1653,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1647,7 +1667,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -1661,7 +1681,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -1675,7 +1695,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -1689,7 +1709,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -1703,7 +1723,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -1717,7 +1737,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -1731,7 +1751,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -1745,7 +1765,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -1759,7 +1779,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -1773,7 +1793,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -1787,7 +1807,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -1801,7 +1821,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -1815,7 +1835,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -1829,7 +1849,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -1843,7 +1863,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -1857,7 +1877,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -1881,7 +1901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1891,28 +1911,25 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1925,8 +1942,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1939,8 +1956,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.805792525521532</v>
@@ -1953,8 +1970,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1967,8 +1984,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.928124943041768</v>
@@ -1981,8 +1998,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1995,8 +2012,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.980758075213057</v>
@@ -2009,8 +2026,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2023,8 +2040,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2037,8 +2054,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.850553653712464</v>
@@ -2051,8 +2068,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2065,8 +2082,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2079,8 +2096,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2093,8 +2110,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.998343913039016</v>
@@ -2107,8 +2124,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.925834010503215</v>
@@ -2121,8 +2138,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.914831185724609</v>
@@ -2135,8 +2152,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.889197992439507</v>
@@ -2149,8 +2166,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -2163,8 +2180,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -2177,8 +2194,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -2191,8 +2208,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -2205,8 +2222,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.912928600623706</v>
@@ -2219,8 +2236,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.885298914584682</v>
@@ -2233,8 +2250,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -2247,8 +2264,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -2261,8 +2278,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.923333362502783</v>
@@ -2275,8 +2292,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -2289,8 +2306,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.955157747123127</v>
@@ -2303,8 +2320,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2317,8 +2334,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.824707049979672</v>
@@ -2331,8 +2348,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.952987338158675</v>
@@ -2345,8 +2362,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.873263888888888</v>
@@ -2359,8 +2376,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2373,8 +2390,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -2387,8 +2404,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -2401,8 +2418,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
+      <c r="A37" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.944333167529983</v>
@@ -2415,8 +2432,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
+      <c r="A38" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -2429,8 +2446,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
+      <c r="A39" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.890748496539046</v>
@@ -2443,8 +2460,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
+      <c r="A40" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.738916363773338</v>
@@ -2457,8 +2474,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
+      <c r="A41" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -2471,8 +2488,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
+      <c r="A42" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -2485,8 +2502,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
+      <c r="A43" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -2499,8 +2516,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
+      <c r="A44" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -2513,8 +2530,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
+      <c r="A45" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2527,8 +2544,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>62</v>
+      <c r="A46" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -2541,8 +2558,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
+      <c r="A47" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -2555,8 +2572,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
+      <c r="A48" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -2569,8 +2586,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>65</v>
+      <c r="A49" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -2583,8 +2600,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>66</v>
+      <c r="A50" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -2597,8 +2614,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>67</v>
+      <c r="A51" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -2611,8 +2628,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
+      <c r="A52" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -2636,75 +2653,75 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:AV50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AV1" activeCellId="0" sqref="AV1"/>
+      <selection pane="topLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="AV1" s="0" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -2715,10 +2732,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -2729,10 +2746,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -2743,10 +2760,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -2757,10 +2774,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -2771,10 +2788,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -2785,10 +2802,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -2799,10 +2816,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -2813,10 +2830,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -2827,10 +2844,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -2841,10 +2858,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -2855,10 +2872,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -2869,10 +2886,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2883,10 +2900,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -2897,10 +2914,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
@@ -2911,10 +2928,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
@@ -2925,10 +2942,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -2939,10 +2956,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -2950,14 +2967,14 @@
       <c r="K19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W19" s="3"/>
+      <c r="W19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -2968,10 +2985,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -2979,14 +2996,14 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="3"/>
+      <c r="W21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -2994,14 +3011,14 @@
       <c r="K22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W22" s="3"/>
+      <c r="W22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0</v>
@@ -3012,10 +3029,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -3026,10 +3043,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -3040,10 +3057,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -3051,14 +3068,14 @@
       <c r="K26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W26" s="3"/>
+      <c r="W26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -3066,14 +3083,14 @@
       <c r="K27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W27" s="3"/>
+      <c r="W27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
@@ -3084,10 +3101,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>0</v>
@@ -3098,10 +3115,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -3112,10 +3129,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -3126,10 +3143,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -3140,10 +3157,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>0</v>
@@ -3154,10 +3171,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
@@ -3168,10 +3185,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -3182,10 +3199,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -3196,10 +3213,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -3210,10 +3227,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -3224,10 +3241,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -3238,10 +3255,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -3252,10 +3269,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -3266,10 +3283,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -3280,10 +3297,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -3294,10 +3311,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -3308,10 +3325,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -3322,10 +3339,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -3336,10 +3353,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -3350,10 +3367,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -3364,10 +3381,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -3378,10 +3395,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -3402,7 +3419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3412,172 +3429,169 @@
       <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -3735,7 +3749,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -3893,7 +3907,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4051,7 +4065,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4209,7 +4223,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -4367,7 +4381,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -4525,7 +4539,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4683,7 +4697,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -4841,7 +4855,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -4999,7 +5013,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -5157,7 +5171,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -5315,7 +5329,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5473,7 +5487,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5631,7 +5645,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5789,7 +5803,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5947,7 +5961,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6105,7 +6119,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6263,7 +6277,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6421,7 +6435,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6579,7 +6593,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -6737,7 +6751,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -6895,7 +6909,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7053,7 +7067,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7211,7 +7225,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -7369,7 +7383,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7527,7 +7541,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7685,7 +7699,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -7843,7 +7857,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8001,7 +8015,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -8159,7 +8173,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -8317,7 +8331,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -8475,7 +8489,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -8633,7 +8647,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -8791,7 +8805,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -8949,7 +8963,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -9107,7 +9121,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -9265,7 +9279,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -9423,7 +9437,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -9581,7 +9595,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -9739,7 +9753,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -9897,7 +9911,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -10055,7 +10069,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -10213,7 +10227,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -10371,7 +10385,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -10529,7 +10543,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -10687,7 +10701,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -10845,7 +10859,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -11003,7 +11017,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -11161,7 +11175,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -11329,7 +11343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -11339,25 +11353,22 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -11367,8 +11378,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -11378,8 +11389,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -11389,8 +11400,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -11400,8 +11411,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -11411,8 +11422,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -11422,8 +11433,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -11433,8 +11444,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -11444,8 +11455,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -11455,8 +11466,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -11466,8 +11477,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -11477,8 +11488,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -11488,8 +11499,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -11499,8 +11510,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -11510,8 +11521,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -11521,8 +11532,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -11532,8 +11543,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -11543,8 +11554,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -11554,8 +11565,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -11565,8 +11576,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -11576,8 +11587,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -11587,8 +11598,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -11598,8 +11609,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -11609,8 +11620,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -11620,8 +11631,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -11631,8 +11642,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -11642,8 +11653,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -11653,8 +11664,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -11664,8 +11675,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -11675,8 +11686,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -11686,8 +11697,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -11697,8 +11708,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -11708,8 +11719,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -11719,8 +11730,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -11730,8 +11741,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -11741,8 +11752,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
+      <c r="A37" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -11752,8 +11763,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
+      <c r="A38" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -11763,8 +11774,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
+      <c r="A39" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -11774,8 +11785,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
+      <c r="A40" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -11785,8 +11796,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
+      <c r="A41" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -11796,8 +11807,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
+      <c r="A42" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -11807,8 +11818,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
+      <c r="A43" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -11818,8 +11829,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
+      <c r="A44" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -11829,8 +11840,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
+      <c r="A45" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1E-012</v>
@@ -11840,8 +11851,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>62</v>
+      <c r="A46" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1E-012</v>
@@ -11851,8 +11862,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
+      <c r="A47" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1E-012</v>
@@ -11862,8 +11873,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
+      <c r="A48" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1E-012</v>
@@ -11873,8 +11884,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>65</v>
+      <c r="A49" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1E-012</v>
@@ -11884,8 +11895,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>66</v>
+      <c r="A50" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1E-012</v>
@@ -11895,8 +11906,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>67</v>
+      <c r="A51" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1E-012</v>
@@ -11906,8 +11917,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
+      <c r="A52" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1E-012</v>
@@ -11928,7 +11939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -11938,499 +11949,498 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
+      <c r="A37" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
+      <c r="A38" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
+      <c r="A39" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
+      <c r="A40" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
+      <c r="A41" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
+      <c r="A42" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
+      <c r="A43" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
+      <c r="A44" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
+      <c r="A45" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -12440,8 +12450,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>62</v>
+      <c r="A46" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -12451,8 +12461,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
+      <c r="A47" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -12462,8 +12472,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
+      <c r="A48" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -12473,8 +12483,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>65</v>
+      <c r="A49" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -12484,8 +12494,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>66</v>
+      <c r="A50" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -12495,8 +12505,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>67</v>
+      <c r="A51" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -12506,8 +12516,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
+      <c r="A52" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -12528,7 +12538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -12538,33 +12548,32 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>169</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -12572,10 +12581,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -12583,10 +12592,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -12594,10 +12603,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -12605,10 +12614,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -12616,10 +12625,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -12627,10 +12636,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -12638,10 +12647,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -12649,10 +12658,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -12660,10 +12669,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -12671,10 +12680,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -12682,52 +12691,52 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -12735,10 +12744,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -12746,10 +12755,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -12757,10 +12766,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -12768,10 +12777,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -12779,10 +12788,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -12790,10 +12799,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -12801,10 +12810,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -12812,10 +12821,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -12823,10 +12832,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -12834,10 +12843,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -12845,10 +12854,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -12856,10 +12865,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -12867,10 +12876,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -12878,10 +12887,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -12889,10 +12898,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -12900,10 +12909,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -12911,10 +12920,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -12922,10 +12931,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -12933,10 +12942,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -12944,10 +12953,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -12955,10 +12964,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -12966,10 +12975,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -12977,10 +12986,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -12988,10 +12997,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -12999,10 +13008,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -13010,10 +13019,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -13021,7 +13030,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -13032,7 +13041,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -13043,7 +13052,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -13054,7 +13063,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -13065,7 +13074,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -13076,7 +13085,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -13087,7 +13096,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -13098,7 +13107,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -13119,7 +13128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -13129,269 +13138,266 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
+      <c r="A2" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
+      <c r="A3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
+      <c r="A10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
+      <c r="A11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+      <c r="A12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
+      <c r="A13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
+      <c r="A15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
+      <c r="A16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
+      <c r="A17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
+      <c r="A18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
+      <c r="A19" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
+      <c r="A21" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
+      <c r="A22" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
+      <c r="A23" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
+      <c r="A24" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
+      <c r="A25" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
+      <c r="A26" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
+      <c r="A27" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
+      <c r="A28" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
+      <c r="A29" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
+      <c r="A30" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
+      <c r="A31" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
+      <c r="A32" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
+      <c r="A33" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
+      <c r="A34" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
+      <c r="A35" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
+      <c r="A36" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
+      <c r="A37" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
+      <c r="A38" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
+      <c r="A39" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
+      <c r="A40" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
+      <c r="A41" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
+      <c r="A42" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
+      <c r="A43" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
+      <c r="A44" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
+      <c r="A45" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>61</v>
+      <c r="A46" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
+      <c r="A47" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
+      <c r="A48" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>64</v>
+      <c r="A49" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
+      <c r="A50" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
+      <c r="A51" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
+      <c r="A52" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
+      <c r="A53" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13406,7 +13412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -13416,269 +13422,266 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
+      <c r="A2" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
+      <c r="A3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
+      <c r="A10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
+      <c r="A11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+      <c r="A12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
+      <c r="A13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
+      <c r="A15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
+      <c r="A16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
+      <c r="A17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
+      <c r="A18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
+      <c r="A19" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
+      <c r="A21" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
+      <c r="A22" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
+      <c r="A23" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
+      <c r="A24" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
+      <c r="A25" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
+      <c r="A26" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
+      <c r="A27" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
+      <c r="A28" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
+      <c r="A29" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
+      <c r="A30" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
+      <c r="A31" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
+      <c r="A32" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
+      <c r="A33" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
+      <c r="A34" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
+      <c r="A35" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
+      <c r="A36" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
+      <c r="A37" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
+      <c r="A38" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
+      <c r="A39" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
+      <c r="A40" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
+      <c r="A41" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
+      <c r="A42" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
+      <c r="A43" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
+      <c r="A44" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
+      <c r="A45" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>61</v>
+      <c r="A46" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
+      <c r="A47" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
+      <c r="A48" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>64</v>
+      <c r="A49" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
+      <c r="A50" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
+      <c r="A51" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
+      <c r="A52" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
+      <c r="A53" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13693,7 +13696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -13703,25 +13706,22 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>208</v>
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -13743,7 +13743,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -13754,7 +13754,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -13765,7 +13765,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -13776,7 +13776,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -13787,7 +13787,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -13809,7 +13809,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -13820,7 +13820,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -13831,7 +13831,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -13842,7 +13842,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -13853,7 +13853,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -13864,7 +13864,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -13875,7 +13875,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -13886,7 +13886,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -13897,7 +13897,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -13908,7 +13908,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -13941,7 +13941,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -13952,7 +13952,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -13963,7 +13963,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -13974,7 +13974,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -13985,7 +13985,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -13996,7 +13996,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -14007,7 +14007,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -14018,7 +14018,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -14029,7 +14029,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -14040,7 +14040,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -14051,7 +14051,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -14062,7 +14062,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -14073,7 +14073,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -14084,7 +14084,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -14095,7 +14095,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -14106,7 +14106,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -14117,7 +14117,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -14128,7 +14128,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -14139,7 +14139,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -14150,7 +14150,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -14161,7 +14161,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -14172,7 +14172,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -14194,7 +14194,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -14205,7 +14205,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -14216,7 +14216,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -14227,7 +14227,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -14238,7 +14238,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -14249,7 +14249,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -14270,7 +14270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -14280,26 +14280,25 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>210</v>
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>6140</v>
@@ -14310,7 +14309,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -14321,7 +14320,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>630</v>
@@ -14332,7 +14331,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -14343,7 +14342,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4790</v>
@@ -14354,7 +14353,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -14365,7 +14364,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>720</v>
@@ -14376,7 +14375,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -14387,7 +14386,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>360</v>
@@ -14398,7 +14397,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5510</v>
@@ -14409,7 +14408,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>720</v>
@@ -14420,7 +14419,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>585</v>
@@ -14431,7 +14430,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -14442,7 +14441,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>292.5</v>
@@ -14453,7 +14452,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1170</v>
@@ -14464,7 +14463,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -14475,7 +14474,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>295</v>
@@ -14486,7 +14485,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>440</v>
@@ -14497,7 +14496,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -14508,7 +14507,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>6110</v>
@@ -14519,7 +14518,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>570</v>
@@ -14530,7 +14529,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>460</v>
@@ -14541,7 +14540,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>460</v>
@@ -14552,7 +14551,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>460</v>
@@ -14563,7 +14562,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>5110</v>
@@ -14574,7 +14573,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>5110</v>
@@ -14585,7 +14584,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>4360</v>
@@ -14596,7 +14595,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4360</v>
@@ -14607,7 +14606,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>3890</v>
@@ -14618,7 +14617,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>700</v>
@@ -14629,7 +14628,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>700</v>
@@ -14640,7 +14639,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2230</v>
@@ -14651,7 +14650,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>5337.5</v>
@@ -14662,7 +14661,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>312.5</v>
@@ -14673,7 +14672,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>10000</v>
@@ -14684,7 +14683,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>470</v>
@@ -14694,8 +14693,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>247</v>
+      <c r="A38" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>700</v>
@@ -14706,7 +14705,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -14717,7 +14716,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>20</v>
@@ -14728,7 +14727,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>290</v>
@@ -14739,7 +14738,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>10</v>
@@ -14750,7 +14749,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>90</v>
@@ -14761,7 +14760,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>140</v>
@@ -14772,7 +14771,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>50</v>
@@ -14783,7 +14782,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>750</v>
